--- a/PySmartKG/data/SmartKG_Xiyouji_org.xlsx
+++ b/PySmartKG/data/SmartKG_Xiyouji_org.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26405"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D4D6CA8-8149-4946-98E8-62E8C2607E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jull\source\github\SmartKG\PySmartKG\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F14DAA-F5C4-4E4C-BBF0-492F47E793C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vertexes" sheetId="1" r:id="rId1"/>
@@ -1253,7 +1258,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1286,7 +1291,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1624,11 +1629,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1690,7 +1695,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -1743,7 +1748,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -1802,7 +1807,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -1855,7 +1860,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>53</v>
       </c>
@@ -1908,7 +1913,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>59</v>
       </c>
@@ -1967,7 +1972,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>67</v>
       </c>
@@ -2026,7 +2031,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>78</v>
       </c>
@@ -2085,7 +2090,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>85</v>
       </c>
@@ -2150,7 +2155,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>93</v>
       </c>
@@ -2215,7 +2220,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>99</v>
       </c>
@@ -2274,7 +2279,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>106</v>
       </c>
@@ -2333,7 +2338,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>112</v>
       </c>
@@ -2398,7 +2403,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>120</v>
       </c>
@@ -2451,7 +2456,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>126</v>
       </c>
@@ -2510,7 +2515,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>135</v>
       </c>
@@ -2575,7 +2580,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>144</v>
       </c>
@@ -2640,7 +2645,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>153</v>
       </c>
@@ -2705,7 +2710,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>160</v>
       </c>
@@ -2770,7 +2775,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>167</v>
       </c>
@@ -2835,7 +2840,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>171</v>
       </c>
@@ -2900,7 +2905,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>179</v>
       </c>
@@ -2953,7 +2958,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>186</v>
       </c>
@@ -3006,7 +3011,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>191</v>
       </c>
@@ -3065,7 +3070,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>197</v>
       </c>
@@ -3118,7 +3123,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>205</v>
       </c>
@@ -3177,7 +3182,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>212</v>
       </c>
@@ -3236,7 +3241,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>218</v>
       </c>
@@ -3295,7 +3300,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>224</v>
       </c>
@@ -3354,7 +3359,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>231</v>
       </c>
@@ -3407,7 +3412,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>237</v>
       </c>
@@ -3460,7 +3465,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>240</v>
       </c>
@@ -3513,7 +3518,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="33" spans="1:22">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>242</v>
       </c>
@@ -3578,7 +3583,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="34" spans="1:22">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>250</v>
       </c>
@@ -3637,7 +3642,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="35" spans="1:22">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>255</v>
       </c>
@@ -3696,7 +3701,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="36" spans="1:22">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>263</v>
       </c>
@@ -3743,7 +3748,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="37" spans="1:22">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>268</v>
       </c>
@@ -3790,7 +3795,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="38" spans="1:22">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>272</v>
       </c>
@@ -3849,7 +3854,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="39" spans="1:22">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>276</v>
       </c>
@@ -3914,7 +3919,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="40" spans="1:22">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>284</v>
       </c>
@@ -3973,7 +3978,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="41" spans="1:22">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>290</v>
       </c>
@@ -4026,7 +4031,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="42" spans="1:22">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>296</v>
       </c>
@@ -4085,7 +4090,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="43" spans="1:22">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>302</v>
       </c>
@@ -4144,7 +4149,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="44" spans="1:22">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>306</v>
       </c>
@@ -4203,7 +4208,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="45" spans="1:22">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>311</v>
       </c>
@@ -4244,7 +4249,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="46" spans="1:22">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>316</v>
       </c>
@@ -4285,7 +4290,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="47" spans="1:22">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>319</v>
       </c>
@@ -4326,7 +4331,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="48" spans="1:22">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>322</v>
       </c>
@@ -4367,7 +4372,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>325</v>
       </c>
@@ -4402,7 +4407,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>329</v>
       </c>
@@ -4425,7 +4430,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>331</v>
       </c>
@@ -4448,7 +4453,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>333</v>
       </c>
@@ -4471,7 +4476,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>335</v>
       </c>
@@ -4488,7 +4493,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>338</v>
       </c>
@@ -4505,7 +4510,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>340</v>
       </c>
@@ -4522,7 +4527,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>343</v>
       </c>
@@ -4539,7 +4544,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>345</v>
       </c>
@@ -4556,7 +4561,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>347</v>
       </c>
@@ -4573,7 +4578,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>349</v>
       </c>
@@ -4590,7 +4595,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>351</v>
       </c>
@@ -4607,7 +4612,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>353</v>
       </c>
@@ -4624,7 +4629,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>355</v>
       </c>
@@ -4641,7 +4646,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>357</v>
       </c>
@@ -4658,7 +4663,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>359</v>
       </c>
@@ -4675,7 +4680,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>361</v>
       </c>
@@ -4692,7 +4697,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>363</v>
       </c>
@@ -4709,7 +4714,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>365</v>
       </c>
@@ -4726,7 +4731,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>367</v>
       </c>
@@ -4743,7 +4748,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>369</v>
       </c>
@@ -4760,7 +4765,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>371</v>
       </c>
@@ -4777,7 +4782,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>373</v>
       </c>
@@ -4794,7 +4799,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>375</v>
       </c>
@@ -4823,7 +4828,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>379</v>
       </c>
@@ -4840,7 +4845,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>381</v>
       </c>
@@ -4857,7 +4862,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>385</v>
       </c>
@@ -4874,7 +4879,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>387</v>
       </c>
@@ -4891,7 +4896,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>389</v>
       </c>
@@ -4908,7 +4913,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>391</v>
       </c>
@@ -4925,7 +4930,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>392</v>
       </c>
@@ -4945,11 +4950,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>394</v>
       </c>
@@ -4960,7 +4965,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>397</v>
       </c>
@@ -4971,7 +4976,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>397</v>
       </c>
@@ -4982,7 +4987,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>397</v>
       </c>
@@ -4993,7 +4998,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>397</v>
       </c>
@@ -5004,7 +5009,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>398</v>
       </c>
@@ -5015,7 +5020,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>398</v>
       </c>
@@ -5026,7 +5031,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>399</v>
       </c>
@@ -5037,7 +5042,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>400</v>
       </c>
@@ -5048,7 +5053,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>401</v>
       </c>
@@ -5059,7 +5064,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>398</v>
       </c>
@@ -5070,7 +5075,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>402</v>
       </c>
@@ -5081,7 +5086,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>398</v>
       </c>
@@ -5092,7 +5097,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>397</v>
       </c>
@@ -5103,7 +5108,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>397</v>
       </c>
@@ -5114,7 +5119,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>397</v>
       </c>
@@ -5125,7 +5130,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>397</v>
       </c>
@@ -5136,7 +5141,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>397</v>
       </c>
@@ -5147,7 +5152,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>397</v>
       </c>
@@ -5158,7 +5163,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>397</v>
       </c>
@@ -5169,7 +5174,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>397</v>
       </c>
@@ -5180,7 +5185,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>397</v>
       </c>
@@ -5191,7 +5196,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>397</v>
       </c>
@@ -5202,7 +5207,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>397</v>
       </c>
@@ -5213,7 +5218,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>399</v>
       </c>
@@ -5224,7 +5229,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>399</v>
       </c>
@@ -5235,7 +5240,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>402</v>
       </c>
@@ -5246,7 +5251,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>402</v>
       </c>
@@ -5257,7 +5262,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>403</v>
       </c>
@@ -5268,7 +5273,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>403</v>
       </c>
@@ -5279,7 +5284,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>403</v>
       </c>
@@ -5290,7 +5295,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>402</v>
       </c>
@@ -5301,7 +5306,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>402</v>
       </c>
@@ -5312,7 +5317,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>402</v>
       </c>
@@ -5323,7 +5328,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>403</v>
       </c>
@@ -5334,7 +5339,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>403</v>
       </c>
@@ -5345,7 +5350,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>403</v>
       </c>
@@ -5356,7 +5361,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>403</v>
       </c>
@@ -5367,7 +5372,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>403</v>
       </c>
@@ -5378,7 +5383,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>404</v>
       </c>
@@ -5389,7 +5394,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>404</v>
       </c>
@@ -5400,7 +5405,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>403</v>
       </c>
@@ -5411,7 +5416,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>403</v>
       </c>
@@ -5422,7 +5427,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>403</v>
       </c>
@@ -5433,7 +5438,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>400</v>
       </c>
@@ -5444,7 +5449,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>400</v>
       </c>
@@ -5455,7 +5460,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>403</v>
       </c>
@@ -5466,7 +5471,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>403</v>
       </c>
@@ -5477,7 +5482,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>403</v>
       </c>
@@ -5488,7 +5493,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>403</v>
       </c>
@@ -5499,7 +5504,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>399</v>
       </c>
@@ -5510,7 +5515,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>397</v>
       </c>
@@ -5521,7 +5526,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>397</v>
       </c>
@@ -5532,7 +5537,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>397</v>
       </c>
@@ -5543,7 +5548,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>397</v>
       </c>
@@ -5554,7 +5559,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>405</v>
       </c>
@@ -5565,7 +5570,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>397</v>
       </c>
@@ -5576,7 +5581,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>397</v>
       </c>
@@ -5590,4 +5595,10 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Standard" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>